--- a/TradingSimula_18-2022/TF-System#5_1R.xlsx
+++ b/TradingSimula_18-2022/TF-System#5_1R.xlsx
@@ -158,12 +158,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EquityCurve'!$A$3:$A$148</f>
+              <f>'EquityCurve'!$A$3:$A$296</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EquityCurve'!$B$2:$B$148</f>
+              <f>'EquityCurve'!$B$2:$B$296</f>
             </numRef>
           </val>
         </ser>
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,1178 +591,2362 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40207</v>
+        <v>36556</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>946.0720300735574</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40235</v>
+        <v>36585</v>
       </c>
       <c r="B4" t="n">
-        <v>-11346.33021039381</v>
+        <v>-1019.945369926432</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40268</v>
+        <v>36616</v>
       </c>
       <c r="B5" t="n">
-        <v>-6185.63859579702</v>
+        <v>-293.8179006180377</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40298</v>
+        <v>36644</v>
       </c>
       <c r="B6" t="n">
-        <v>-14720.95212953007</v>
+        <v>-3711.961314784116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40326</v>
+        <v>36677</v>
       </c>
       <c r="B7" t="n">
-        <v>-18475.93110752093</v>
+        <v>-3711.961314784116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40359</v>
+        <v>36707</v>
       </c>
       <c r="B8" t="n">
-        <v>-29490.10308488569</v>
+        <v>-3711.961314784116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40389</v>
+        <v>36738</v>
       </c>
       <c r="B9" t="n">
-        <v>-35065.50032405561</v>
+        <v>-3711.961314784116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40421</v>
+        <v>36769</v>
       </c>
       <c r="B10" t="n">
-        <v>-33875.23287968864</v>
+        <v>-3711.961314784116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40451</v>
+        <v>36798</v>
       </c>
       <c r="B11" t="n">
-        <v>-34132.51277569842</v>
+        <v>-5126.875839682086</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40480</v>
+        <v>36830</v>
       </c>
       <c r="B12" t="n">
-        <v>-41188.07020694643</v>
+        <v>-6709.39810066887</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40512</v>
+        <v>36860</v>
       </c>
       <c r="B13" t="n">
-        <v>-43857.29521386676</v>
+        <v>-3716.596147449132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>40543</v>
+        <v>36889</v>
       </c>
       <c r="B14" t="n">
-        <v>-41824.55098754452</v>
+        <v>705.6248795355459</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>40574</v>
+        <v>36922</v>
       </c>
       <c r="B15" t="n">
-        <v>-44641.59183389336</v>
+        <v>-61.66811831428436</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40602</v>
+        <v>36950</v>
       </c>
       <c r="B16" t="n">
-        <v>-44152.42686785052</v>
+        <v>-61.66811831428436</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>40633</v>
+        <v>36980</v>
       </c>
       <c r="B17" t="n">
-        <v>-40059.73933541513</v>
+        <v>-4322.818724131912</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>40662</v>
+        <v>37011</v>
       </c>
       <c r="B18" t="n">
-        <v>-35776.69463092442</v>
+        <v>-3462.378489461239</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>40694</v>
+        <v>37042</v>
       </c>
       <c r="B19" t="n">
-        <v>-42288.58544866359</v>
+        <v>-4957.7636086033</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>40724</v>
+        <v>37071</v>
       </c>
       <c r="B20" t="n">
-        <v>-48523.09279076109</v>
+        <v>-8042.207344633021</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>40753</v>
+        <v>37103</v>
       </c>
       <c r="B21" t="n">
-        <v>-51133.91849518488</v>
+        <v>-7905.224687706856</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>40786</v>
+        <v>37134</v>
       </c>
       <c r="B22" t="n">
-        <v>-63380.57814553456</v>
+        <v>-6817.098865343854</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>40816</v>
+        <v>37162</v>
       </c>
       <c r="B23" t="n">
-        <v>-61903.14487860307</v>
+        <v>-3943.352198281907</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>40847</v>
+        <v>37195</v>
       </c>
       <c r="B24" t="n">
-        <v>-72234.03697719256</v>
+        <v>783.0746498572998</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>40877</v>
+        <v>37225</v>
       </c>
       <c r="B25" t="n">
-        <v>-83532.04454772861</v>
+        <v>-1326.350715588083</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>40907</v>
+        <v>37256</v>
       </c>
       <c r="B26" t="n">
-        <v>-88122.2634690344</v>
+        <v>-2787.240036176268</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>40939</v>
+        <v>37287</v>
       </c>
       <c r="B27" t="n">
-        <v>-88686.23335349078</v>
+        <v>-3011.022512580212</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>40968</v>
+        <v>37315</v>
       </c>
       <c r="B28" t="n">
-        <v>-88151.86084813377</v>
+        <v>-3011.022512580212</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>40998</v>
+        <v>37343</v>
       </c>
       <c r="B29" t="n">
-        <v>-100973.865676063</v>
+        <v>-1234.52954425069</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41029</v>
+        <v>37376</v>
       </c>
       <c r="B30" t="n">
-        <v>-100973.865676063</v>
+        <v>-3326.962528949531</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>41060</v>
+        <v>37407</v>
       </c>
       <c r="B31" t="n">
-        <v>-76459.50281386411</v>
+        <v>-3326.962528949531</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>41089</v>
+        <v>37435</v>
       </c>
       <c r="B32" t="n">
-        <v>-70197.0367608009</v>
+        <v>-5111.462150728153</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>41121</v>
+        <v>37468</v>
       </c>
       <c r="B33" t="n">
-        <v>-66167.0367608009</v>
+        <v>2458.206641977012</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>41152</v>
+        <v>37498</v>
       </c>
       <c r="B34" t="n">
-        <v>-68398.82010182549</v>
+        <v>7544.551775697091</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>41180</v>
+        <v>37529</v>
       </c>
       <c r="B35" t="n">
-        <v>-70925.0145563886</v>
+        <v>12127.17197290958</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>41213</v>
+        <v>37560</v>
       </c>
       <c r="B36" t="n">
-        <v>-71272.20970882403</v>
+        <v>10661.87860610659</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>41243</v>
+        <v>37589</v>
       </c>
       <c r="B37" t="n">
-        <v>-72016.83009415799</v>
+        <v>10021.25360610659</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B38" t="n">
-        <v>-75275.90245367291</v>
+        <v>3503.404927485435</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>41305</v>
+        <v>37652</v>
       </c>
       <c r="B39" t="n">
-        <v>-74535.12650316147</v>
+        <v>3503.404927485435</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>41333</v>
+        <v>37680</v>
       </c>
       <c r="B40" t="n">
-        <v>-76940.1415289985</v>
+        <v>3883.837507484529</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>41362</v>
+        <v>37711</v>
       </c>
       <c r="B41" t="n">
-        <v>-80047.25275384617</v>
+        <v>3568.756547398442</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>41394</v>
+        <v>37741</v>
       </c>
       <c r="B42" t="n">
-        <v>-72900.24127136015</v>
+        <v>3568.756547398442</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>41425</v>
+        <v>37771</v>
       </c>
       <c r="B43" t="n">
-        <v>-72900.24127136015</v>
+        <v>9460.743396488011</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>41453</v>
+        <v>37802</v>
       </c>
       <c r="B44" t="n">
-        <v>-76691.83278938185</v>
+        <v>8819.240370601339</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>41486</v>
+        <v>37833</v>
       </c>
       <c r="B45" t="n">
-        <v>-75021.04240275906</v>
+        <v>14110.93665511331</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>41516</v>
+        <v>37862</v>
       </c>
       <c r="B46" t="n">
-        <v>-86128.72404886092</v>
+        <v>11364.77656281053</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B47" t="n">
-        <v>-90502.45172674078</v>
+        <v>8597.922099734678</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>41578</v>
+        <v>37925</v>
       </c>
       <c r="B48" t="n">
-        <v>-88970.61330256387</v>
+        <v>8597.922099734678</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>41607</v>
+        <v>37953</v>
       </c>
       <c r="B49" t="n">
-        <v>-87559.30442413225</v>
+        <v>6029.490880161648</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B50" t="n">
-        <v>-91886.39086587619</v>
+        <v>4645.499100501866</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>41670</v>
+        <v>38016</v>
       </c>
       <c r="B51" t="n">
-        <v>-88331.41671267079</v>
+        <v>1964.325198752979</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>41698</v>
+        <v>38044</v>
       </c>
       <c r="B52" t="n">
-        <v>-80007.47464028532</v>
+        <v>-1149.305072355287</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B53" t="n">
-        <v>-86203.63878388678</v>
+        <v>-3025.023976733232</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>41759</v>
+        <v>38107</v>
       </c>
       <c r="B54" t="n">
-        <v>-86203.63878388678</v>
+        <v>-27.94721623360783</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>41789</v>
+        <v>38135</v>
       </c>
       <c r="B55" t="n">
-        <v>-87501.10731895504</v>
+        <v>4105.271369660255</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B56" t="n">
-        <v>-89636.7371408098</v>
+        <v>3878.670413651869</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>41851</v>
+        <v>38198</v>
       </c>
       <c r="B57" t="n">
-        <v>-87012.95538022742</v>
+        <v>3878.670413651869</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>41880</v>
+        <v>38230</v>
       </c>
       <c r="B58" t="n">
-        <v>-93481.70162491509</v>
+        <v>5211.597280893011</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B59" t="n">
-        <v>-83156.9012516026</v>
+        <v>4575.568267894212</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>41943</v>
+        <v>38289</v>
       </c>
       <c r="B60" t="n">
-        <v>-72898.59319543844</v>
+        <v>2200.222284388755</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>41971</v>
+        <v>38321</v>
       </c>
       <c r="B61" t="n">
-        <v>-63986.3098045747</v>
+        <v>3915.33671474799</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B62" t="n">
-        <v>-29475.2079506543</v>
+        <v>-1526.310559685596</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42034</v>
+        <v>38383</v>
       </c>
       <c r="B63" t="n">
-        <v>-22499.18226169647</v>
+        <v>-3733.661771175975</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42062</v>
+        <v>38411</v>
       </c>
       <c r="B64" t="n">
-        <v>-24209.18226169648</v>
+        <v>-2410.642037306011</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B65" t="n">
-        <v>-24209.18226169648</v>
+        <v>-3897.369531963177</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42124</v>
+        <v>38471</v>
       </c>
       <c r="B66" t="n">
-        <v>-25290.5346028708</v>
+        <v>-5376.987417561172</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42153</v>
+        <v>38503</v>
       </c>
       <c r="B67" t="n">
-        <v>-28576.26074599154</v>
+        <v>-5376.987417561172</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B68" t="n">
-        <v>-28576.26074599154</v>
+        <v>-7213.587765063134</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42216</v>
+        <v>38562</v>
       </c>
       <c r="B69" t="n">
-        <v>-20457.06994567323</v>
+        <v>-7127.525575497964</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42247</v>
+        <v>38595</v>
       </c>
       <c r="B70" t="n">
-        <v>-12819.5445433384</v>
+        <v>-8506.530182322906</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B71" t="n">
-        <v>-12068.34862144283</v>
+        <v>-8829.804733517991</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>42307</v>
+        <v>38656</v>
       </c>
       <c r="B72" t="n">
-        <v>-7377.875249614244</v>
+        <v>-5174.576522920693</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>42338</v>
+        <v>38686</v>
       </c>
       <c r="B73" t="n">
-        <v>-759.6127874879094</v>
+        <v>-7500.50513974768</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>42369</v>
+        <v>38716</v>
       </c>
       <c r="B74" t="n">
-        <v>19954.00557311339</v>
+        <v>-7500.50513974768</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>42398</v>
+        <v>38748</v>
       </c>
       <c r="B75" t="n">
-        <v>30221.49253995073</v>
+        <v>-7500.50513974768</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>42429</v>
+        <v>38776</v>
       </c>
       <c r="B76" t="n">
-        <v>31589.23286537372</v>
+        <v>-7432.548268773877</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B77" t="n">
-        <v>31184.34763433472</v>
+        <v>-5232.939562865013</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>42489</v>
+        <v>38835</v>
       </c>
       <c r="B78" t="n">
-        <v>35242.51917720304</v>
+        <v>-2762.069562864999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>42521</v>
+        <v>38868</v>
       </c>
       <c r="B79" t="n">
-        <v>37109.87468531408</v>
+        <v>-2807.612785372637</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B80" t="n">
-        <v>41452.26550981963</v>
+        <v>-3590.062771644677</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>42580</v>
+        <v>38929</v>
       </c>
       <c r="B81" t="n">
-        <v>41430.20100997802</v>
+        <v>-3655.062771644681</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>42613</v>
+        <v>38960</v>
       </c>
       <c r="B82" t="n">
-        <v>34039.56647763854</v>
+        <v>602.3384183126127</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>42643</v>
+        <v>38989</v>
       </c>
       <c r="B83" t="n">
-        <v>32078.40479014999</v>
+        <v>1115.46635123391</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>42674</v>
+        <v>39021</v>
       </c>
       <c r="B84" t="n">
-        <v>27004.75543577725</v>
+        <v>46.1303341513958</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>42704</v>
+        <v>39051</v>
       </c>
       <c r="B85" t="n">
-        <v>27378.81271187407</v>
+        <v>944.9540008278036</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>42734</v>
+        <v>39080</v>
       </c>
       <c r="B86" t="n">
-        <v>29394.09985855436</v>
+        <v>-1692.682527629851</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>42766</v>
+        <v>39113</v>
       </c>
       <c r="B87" t="n">
-        <v>24564.76995180536</v>
+        <v>-2160.166242472838</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>42794</v>
+        <v>39141</v>
       </c>
       <c r="B88" t="n">
-        <v>24926.14186233865</v>
+        <v>-4087.38766646929</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>42825</v>
+        <v>39171</v>
       </c>
       <c r="B89" t="n">
-        <v>20905.14691101119</v>
+        <v>-4805.680525848026</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>42853</v>
+        <v>39202</v>
       </c>
       <c r="B90" t="n">
-        <v>20905.14691101119</v>
+        <v>-4805.680525848026</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>42886</v>
+        <v>39233</v>
       </c>
       <c r="B91" t="n">
-        <v>19435.09105240086</v>
+        <v>-4132.823161448381</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>42916</v>
+        <v>39262</v>
       </c>
       <c r="B92" t="n">
-        <v>19431.70561183101</v>
+        <v>-1882.428708428553</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>42947</v>
+        <v>39294</v>
       </c>
       <c r="B93" t="n">
-        <v>17324.12811343199</v>
+        <v>-2458.844470770555</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>42978</v>
+        <v>39325</v>
       </c>
       <c r="B94" t="n">
-        <v>14637.82347346733</v>
+        <v>-2065.728363788878</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43007</v>
+        <v>39353</v>
       </c>
       <c r="B95" t="n">
-        <v>17807.46720288128</v>
+        <v>-2097.380742796297</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43039</v>
+        <v>39386</v>
       </c>
       <c r="B96" t="n">
-        <v>16886.00424680891</v>
+        <v>-2097.380742796297</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43069</v>
+        <v>39416</v>
       </c>
       <c r="B97" t="n">
-        <v>14761.35302792678</v>
+        <v>2843.289702426759</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43098</v>
+        <v>39447</v>
       </c>
       <c r="B98" t="n">
-        <v>16001.35790931618</v>
+        <v>536.1810323611498</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43131</v>
+        <v>39478</v>
       </c>
       <c r="B99" t="n">
-        <v>15590.38206331601</v>
+        <v>1924.281243377267</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43159</v>
+        <v>39507</v>
       </c>
       <c r="B100" t="n">
-        <v>11389.75156656875</v>
+        <v>1407.950941775136</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43188</v>
+        <v>39538</v>
       </c>
       <c r="B101" t="n">
-        <v>11389.75156656875</v>
+        <v>248.6508462338807</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43220</v>
+        <v>39568</v>
       </c>
       <c r="B102" t="n">
-        <v>12132.81425160958</v>
+        <v>-4259.404627071473</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43251</v>
+        <v>39598</v>
       </c>
       <c r="B103" t="n">
-        <v>19556.85635394516</v>
+        <v>-2435.364850373866</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43280</v>
+        <v>39629</v>
       </c>
       <c r="B104" t="n">
-        <v>19975.11513843828</v>
+        <v>-4476.520478101113</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43312</v>
+        <v>39660</v>
       </c>
       <c r="B105" t="n">
-        <v>15795.11513843828</v>
+        <v>-4476.520478101113</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43343</v>
+        <v>39689</v>
       </c>
       <c r="B106" t="n">
-        <v>15795.11513843828</v>
+        <v>-6916.270543153023</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43371</v>
+        <v>39721</v>
       </c>
       <c r="B107" t="n">
-        <v>15491.35695521284</v>
+        <v>-9714.697696155756</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43404</v>
+        <v>39752</v>
       </c>
       <c r="B108" t="n">
-        <v>14624.65449853793</v>
+        <v>-22605.18635423292</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43434</v>
+        <v>39780</v>
       </c>
       <c r="B109" t="n">
-        <v>46544.2740412592</v>
+        <v>-16132.77503338405</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B110" t="n">
-        <v>50052.68790771303</v>
+        <v>-1213.857924982431</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43496</v>
+        <v>39843</v>
       </c>
       <c r="B111" t="n">
-        <v>45712.48954599775</v>
+        <v>-7301.713480400012</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43524</v>
+        <v>39871</v>
       </c>
       <c r="B112" t="n">
-        <v>45712.48954599775</v>
+        <v>-7301.713480400012</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43553</v>
+        <v>39903</v>
       </c>
       <c r="B113" t="n">
-        <v>45712.48954599775</v>
+        <v>-9189.301571884745</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43585</v>
+        <v>39933</v>
       </c>
       <c r="B114" t="n">
-        <v>47523.7729292965</v>
+        <v>-9915.825129746045</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43616</v>
+        <v>39962</v>
       </c>
       <c r="B115" t="n">
-        <v>45143.24208729135</v>
+        <v>-4119.083821266591</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43644</v>
+        <v>39994</v>
       </c>
       <c r="B116" t="n">
-        <v>44159.21456469573</v>
+        <v>-770.4637665151422</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43677</v>
+        <v>40025</v>
       </c>
       <c r="B117" t="n">
-        <v>43082.40187307833</v>
+        <v>-770.4637665151422</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43707</v>
+        <v>40056</v>
       </c>
       <c r="B118" t="n">
-        <v>31707.93565255291</v>
+        <v>-770.4637665151422</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B119" t="n">
-        <v>18904.17354957939</v>
+        <v>-770.4637665151422</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43769</v>
+        <v>40116</v>
       </c>
       <c r="B120" t="n">
-        <v>15035.49034216243</v>
+        <v>-6047.614196011056</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43798</v>
+        <v>40147</v>
       </c>
       <c r="B121" t="n">
-        <v>13142.49104315395</v>
+        <v>-5761.934449644405</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B122" t="n">
-        <v>16079.55749889374</v>
+        <v>-5184.982709399759</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43861</v>
+        <v>40207</v>
       </c>
       <c r="B123" t="n">
-        <v>20062.82074497379</v>
+        <v>-7332.376856211942</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43889</v>
+        <v>40235</v>
       </c>
       <c r="B124" t="n">
-        <v>27808.93387755747</v>
+        <v>-7332.376856211942</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B125" t="n">
-        <v>70652.27653396539</v>
+        <v>-8697.612722682612</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43951</v>
+        <v>40298</v>
       </c>
       <c r="B126" t="n">
-        <v>76474.19366303284</v>
+        <v>-11374.28284357899</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43980</v>
+        <v>40326</v>
       </c>
       <c r="B127" t="n">
-        <v>70227.14718562871</v>
+        <v>-8888.266601383981</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B128" t="n">
-        <v>71732.44151415257</v>
+        <v>-3301.875211357987</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44043</v>
+        <v>40389</v>
       </c>
       <c r="B129" t="n">
-        <v>71732.44151415257</v>
+        <v>-4387.477113277399</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44074</v>
+        <v>40421</v>
       </c>
       <c r="B130" t="n">
-        <v>73966.74718988428</v>
+        <v>-1086.895012971192</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B131" t="n">
-        <v>72211.88825357641</v>
+        <v>-5079.115012971184</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44134</v>
+        <v>40480</v>
       </c>
       <c r="B132" t="n">
-        <v>65853.20109514135</v>
+        <v>-6260.381254242631</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44165</v>
+        <v>40512</v>
       </c>
       <c r="B133" t="n">
-        <v>59264.36037850958</v>
+        <v>-9844.472733889821</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B134" t="n">
-        <v>62390.45745380474</v>
+        <v>-1702.642621128974</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44225</v>
+        <v>40574</v>
       </c>
       <c r="B135" t="n">
-        <v>69354.42356946995</v>
+        <v>-1989.472847826968</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44253</v>
+        <v>40602</v>
       </c>
       <c r="B136" t="n">
-        <v>78495.41814691367</v>
+        <v>-1989.472847826968</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44286</v>
+        <v>40633</v>
       </c>
       <c r="B137" t="n">
-        <v>69665.42524184429</v>
+        <v>-1989.472847826968</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44316</v>
+        <v>40662</v>
       </c>
       <c r="B138" t="n">
-        <v>69665.42524184429</v>
+        <v>-6043.435787193615</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44344</v>
+        <v>40694</v>
       </c>
       <c r="B139" t="n">
-        <v>65819.96763496008</v>
+        <v>-3146.692271051163</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44377</v>
+        <v>40724</v>
       </c>
       <c r="B140" t="n">
-        <v>75018.58697872232</v>
+        <v>-3106.32047348469</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44407</v>
+        <v>40753</v>
       </c>
       <c r="B141" t="n">
-        <v>74075.74228634044</v>
+        <v>-3402.508443023382</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44439</v>
+        <v>40786</v>
       </c>
       <c r="B142" t="n">
-        <v>66437.16261764751</v>
+        <v>9414.923470569265</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44469</v>
+        <v>40816</v>
       </c>
       <c r="B143" t="n">
-        <v>85530.01705744577</v>
+        <v>15409.24749912167</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44498</v>
+        <v>40847</v>
       </c>
       <c r="B144" t="n">
-        <v>87841.26517113225</v>
+        <v>15409.24749912167</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44530</v>
+        <v>40877</v>
       </c>
       <c r="B145" t="n">
-        <v>80798.76062464013</v>
+        <v>15409.24749912167</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44561</v>
+        <v>40907</v>
       </c>
       <c r="B146" t="n">
-        <v>80748.76062464013</v>
+        <v>14496.2814227905</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44592</v>
+        <v>40939</v>
       </c>
       <c r="B147" t="n">
-        <v>86496.6769181155</v>
+        <v>12158.50395780972</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44620</v>
+        <v>40968</v>
       </c>
       <c r="B148" t="n">
-        <v>97264.53223956496</v>
+        <v>10004.88345304859</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
+        <v>40998</v>
+      </c>
+      <c r="B149" t="n">
+        <v>12178.72874162524</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>41029</v>
+      </c>
+      <c r="B150" t="n">
+        <v>8102.407126179558</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B151" t="n">
+        <v>12428.91650347615</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>41089</v>
+      </c>
+      <c r="B152" t="n">
+        <v>11293.73973939833</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>41121</v>
+      </c>
+      <c r="B153" t="n">
+        <v>10746.22658824209</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>41152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>10191.04820075328</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>41180</v>
+      </c>
+      <c r="B155" t="n">
+        <v>6042.7659762494</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>41213</v>
+      </c>
+      <c r="B156" t="n">
+        <v>4501.429141521818</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>41243</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2085.529747295528</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>41274</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-779.7207863214317</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>41305</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-57.53193470822589</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>41333</v>
+      </c>
+      <c r="B160" t="n">
+        <v>-1131.365451967002</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>41361</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-6201.935788691299</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>41394</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-5880.225018901525</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>41425</v>
+      </c>
+      <c r="B163" t="n">
+        <v>-6062.727088959156</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>41453</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1797.963330829647</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>41486</v>
+      </c>
+      <c r="B165" t="n">
+        <v>971.1749925106924</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>41516</v>
+      </c>
+      <c r="B166" t="n">
+        <v>504.1528708235637</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>41547</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-1436.31655845336</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>41578</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-1436.31655845336</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>41607</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-1436.31655845336</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>41639</v>
+      </c>
+      <c r="B170" t="n">
+        <v>-3012.538331620497</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>41670</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-5020.679152211625</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>41698</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-5020.679152211625</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>41729</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-5145.377287286632</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>41759</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-5779.760952227989</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>41789</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-5392.523004962684</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>41820</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-5880.023004962684</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>41851</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-7509.580489302145</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>41880</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-6799.053457999285</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>41912</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-8267.28306848216</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>41943</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-8022.659705713206</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>41971</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-7335.159705713206</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>42004</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-12603.44068717601</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>42034</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-4474.587490021248</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>42062</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-9702.209859728915</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>42094</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-7892.291459728916</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>42124</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-7536.041459728916</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>42153</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-9016.993822639986</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>42185</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-9377.712759960192</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>42216</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-9377.712759960192</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>42247</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-16735.32437976819</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>42277</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-16862.52338442466</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>42307</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-16884.62880520248</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>42338</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-21218.66091566001</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>42369</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-28737.39237643882</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>42398</v>
+      </c>
+      <c r="B195" t="n">
+        <v>-29279.53941761917</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>42429</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-25805.68614037517</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>42460</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-29531.39767468203</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>42489</v>
+      </c>
+      <c r="B198" t="n">
+        <v>-29531.39767468203</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>42521</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-29884.44372241587</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>42551</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-28005.49294679877</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>42580</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-30686.74294679877</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>42613</v>
+      </c>
+      <c r="B202" t="n">
+        <v>-30686.74294679877</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>42643</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-30686.74294679877</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>42674</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-32673.15936953664</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>42704</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-16074.54427118936</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>42734</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-15433.06209813803</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>42766</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-15433.06209813803</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>42794</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-15433.06209813803</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>42825</v>
+      </c>
+      <c r="B209" t="n">
+        <v>-19551.05169633299</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>42853</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-21706.48602497682</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-22839.12560506988</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>42916</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-24908.90833583606</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>42947</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-24908.90833583606</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>42978</v>
+      </c>
+      <c r="B214" t="n">
+        <v>-26648.24118426198</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>43007</v>
+      </c>
+      <c r="B215" t="n">
+        <v>-31108.07622354387</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>43039</v>
+      </c>
+      <c r="B216" t="n">
+        <v>-35640.7989002817</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>43069</v>
+      </c>
+      <c r="B217" t="n">
+        <v>-37053.53310107295</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>43098</v>
+      </c>
+      <c r="B218" t="n">
+        <v>-39128.86704255115</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>43131</v>
+      </c>
+      <c r="B219" t="n">
+        <v>-30767.13074712752</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>43159</v>
+      </c>
+      <c r="B220" t="n">
+        <v>-27423.70263505926</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>43188</v>
+      </c>
+      <c r="B221" t="n">
+        <v>-28398.50888267226</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>43220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>-28398.50888267226</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B223" t="n">
+        <v>-31438.89262494459</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>43280</v>
+      </c>
+      <c r="B224" t="n">
+        <v>-31438.89262494459</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>43312</v>
+      </c>
+      <c r="B225" t="n">
+        <v>-31438.89262494459</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>43343</v>
+      </c>
+      <c r="B226" t="n">
+        <v>-31438.89262494459</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>43371</v>
+      </c>
+      <c r="B227" t="n">
+        <v>-29646.11416772009</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>43404</v>
+      </c>
+      <c r="B228" t="n">
+        <v>-27765.16067643826</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>43434</v>
+      </c>
+      <c r="B229" t="n">
+        <v>-28094.0906205032</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>43465</v>
+      </c>
+      <c r="B230" t="n">
+        <v>-24899.01741123428</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>43496</v>
+      </c>
+      <c r="B231" t="n">
+        <v>-25098.95814730321</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>43524</v>
+      </c>
+      <c r="B232" t="n">
+        <v>-26388.98467132251</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>43553</v>
+      </c>
+      <c r="B233" t="n">
+        <v>-24584.9606483141</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>43585</v>
+      </c>
+      <c r="B234" t="n">
+        <v>-28212.07278426453</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>43616</v>
+      </c>
+      <c r="B235" t="n">
+        <v>-20511.82300365968</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>43644</v>
+      </c>
+      <c r="B236" t="n">
+        <v>-17453.52189165968</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>43677</v>
+      </c>
+      <c r="B237" t="n">
+        <v>-20001.80607874786</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B238" t="n">
+        <v>-13969.25568354787</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="B239" t="n">
+        <v>-17829.31237702423</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="B240" t="n">
+        <v>-18892.89968863408</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>43798</v>
+      </c>
+      <c r="B241" t="n">
+        <v>-18892.89968863408</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>43830</v>
+      </c>
+      <c r="B242" t="n">
+        <v>-19259.02735645374</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>43861</v>
+      </c>
+      <c r="B243" t="n">
+        <v>-19025.55679201285</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>43889</v>
+      </c>
+      <c r="B244" t="n">
+        <v>-7103.766914626605</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1694.907719289513</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>43951</v>
+      </c>
+      <c r="B246" t="n">
+        <v>3348.242036579388</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B247" t="n">
+        <v>3243.557036579376</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B248" t="n">
+        <v>3243.557036579376</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B249" t="n">
+        <v>3470.100186314739</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>44074</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1589.310885715902</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B251" t="n">
+        <v>-1215.224114284101</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>44134</v>
+      </c>
+      <c r="B252" t="n">
+        <v>-1218.85103297617</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B253" t="n">
+        <v>-9476.930040675034</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B254" t="n">
+        <v>-9426.612840675058</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>44225</v>
+      </c>
+      <c r="B255" t="n">
+        <v>-9499.064458562207</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>44253</v>
+      </c>
+      <c r="B256" t="n">
+        <v>4982.929412830628</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B257" t="n">
+        <v>11344.77189276825</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="B258" t="n">
+        <v>7803.218735241324</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="B259" t="n">
+        <v>7803.218735241324</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B260" t="n">
+        <v>8214.713124874972</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B261" t="n">
+        <v>12370.7429243094</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B262" t="n">
+        <v>10118.07676162115</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B263" t="n">
+        <v>10543.20891037954</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>44498</v>
+      </c>
+      <c r="B264" t="n">
+        <v>10202.20650108738</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B265" t="n">
+        <v>7579.372534031972</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B266" t="n">
+        <v>7579.372534031972</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B267" t="n">
+        <v>9570.066339993838</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B268" t="n">
+        <v>14129.653529452</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B149" t="n">
-        <v>121796.2105484642</v>
+      <c r="B269" t="n">
+        <v>17723.60473480727</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B270" t="n">
+        <v>31702.75483392088</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B271" t="n">
+        <v>31873.96488261945</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B272" t="n">
+        <v>22636.27114005703</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B273" t="n">
+        <v>22636.27114005703</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B274" t="n">
+        <v>14242.57073193289</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B275" t="n">
+        <v>25262.90754891685</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B276" t="n">
+        <v>31091.15531026512</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B277" t="n">
+        <v>31091.15531026512</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="B278" t="n">
+        <v>31091.15531026512</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B279" t="n">
+        <v>29108.92316945289</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B280" t="n">
+        <v>28563.09049871398</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B281" t="n">
+        <v>21298.76420432386</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B282" t="n">
+        <v>16260.48898593504</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B283" t="n">
+        <v>16260.48898593504</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B284" t="n">
+        <v>15634.43864664849</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B285" t="n">
+        <v>11561.88187196151</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B286" t="n">
+        <v>16647.72485390507</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B287" t="n">
+        <v>19552.92616574549</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B288" t="n">
+        <v>22601.90367793627</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B289" t="n">
+        <v>19001.52992910733</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>24117.20127445816</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B291" t="n">
+        <v>20127.16901274474</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B292" t="n">
+        <v>20127.16901274474</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B293" t="n">
+        <v>20127.16901274474</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B294" t="n">
+        <v>25581.76211859593</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B295" t="n">
+        <v>23127.60649295207</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B296" t="n">
+        <v>23127.60649295207</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B297" t="n">
+        <v>23130.95591818332</v>
       </c>
     </row>
   </sheetData>
